--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -7,15 +7,18 @@
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DSAList" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="5" r:id="rId2"/>
+    <sheet name="Core" sheetId="2" r:id="rId3"/>
+    <sheet name="ML" sheetId="3" r:id="rId4"/>
+    <sheet name="WebD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="472">
   <si>
     <t>Placement Prepration List</t>
   </si>
@@ -56,6 +59,9 @@
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
+    <t>2 pointer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
@@ -1422,6 +1428,12 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>SubTopic</t>
   </si>
 </sst>
 </file>
@@ -1430,11 +1442,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1445,6 +1457,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1493,7 +1513,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1501,7 +1521,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1525,6 +1545,68 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1537,7 +1619,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,70 +1670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,46 +1684,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,7 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,7 +1706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,31 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,67 +1748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,7 +1766,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1830,43 +1832,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,21 +1891,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1907,17 +1906,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,26 +1944,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1977,149 +1965,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2127,34 +2141,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2478,8 +2492,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2491,93 +2505,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.2" spans="2:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="21" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" ht="21" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" ht="21" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" ht="21" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" ht="21" spans="1:2">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:2">
@@ -2585,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:2">
@@ -2593,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:2">
@@ -2601,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:2">
@@ -2609,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:2">
@@ -2617,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:2">
@@ -2625,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:2">
@@ -2633,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:2">
@@ -2641,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:2">
@@ -2649,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:2">
@@ -2657,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:2">
@@ -2665,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:2">
@@ -2673,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:2">
@@ -2681,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:2">
@@ -2689,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:2">
@@ -2697,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:2">
@@ -2705,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:2">
@@ -2713,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:2">
@@ -2721,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:2">
@@ -2729,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:2">
@@ -2737,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:2">
@@ -2745,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:2">
@@ -2753,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:2">
@@ -2761,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:2">
@@ -2769,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:2">
@@ -2777,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:2">
@@ -2785,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:2">
@@ -2793,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:2">
@@ -2801,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:2">
@@ -2809,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:2">
@@ -2821,82 +2837,82 @@
     </row>
     <row r="44" ht="21" spans="1:2">
       <c r="A44" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:2">
       <c r="A45" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:2">
       <c r="A46" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:2">
       <c r="A48" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:2">
       <c r="A49" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:2">
       <c r="A50" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:2">
       <c r="A51" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:2">
       <c r="A52" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:2">
       <c r="A53" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:2">
@@ -2905,346 +2921,346 @@
     </row>
     <row r="56" ht="21" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:2">
       <c r="A58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:2">
       <c r="A59" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:2">
       <c r="A60" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:2">
       <c r="A61" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:2">
       <c r="A62" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:2">
       <c r="A63" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:2">
       <c r="A64" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:2">
       <c r="A65" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:2">
       <c r="A66" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:2">
       <c r="A67" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:2">
       <c r="A68" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:2">
       <c r="A69" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:2">
       <c r="A70" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:2">
       <c r="A71" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:2">
       <c r="A72" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:2">
       <c r="A73" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:2">
       <c r="A74" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:2">
       <c r="A75" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:2">
       <c r="A76" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:2">
       <c r="A77" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:2">
       <c r="A78" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:2">
       <c r="A79" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:2">
       <c r="A80" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:2">
       <c r="A81" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:2">
       <c r="A82" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:2">
       <c r="A83" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:2">
       <c r="A84" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:2">
       <c r="A85" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:2">
       <c r="A86" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:2">
       <c r="A87" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:2">
       <c r="A88" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:2">
       <c r="A89" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:2">
       <c r="A90" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:2">
       <c r="A91" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:2">
       <c r="A92" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:2">
       <c r="A93" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:2">
       <c r="A94" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:2">
       <c r="A95" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:2">
       <c r="A96" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:2">
       <c r="A97" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:2">
       <c r="A98" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:2">
@@ -3253,290 +3269,290 @@
     </row>
     <row r="101" ht="21" spans="1:2">
       <c r="A101" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:2">
       <c r="A102" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:2">
       <c r="A103" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:2">
       <c r="A104" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:2">
       <c r="A105" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:2">
       <c r="A106" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:2">
       <c r="A107" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:2">
       <c r="A108" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:2">
       <c r="A109" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:2">
       <c r="A110" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:2">
       <c r="A111" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:2">
       <c r="A112" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:2">
       <c r="A113" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:2">
       <c r="A114" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:2">
       <c r="A115" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:2">
       <c r="A116" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:2">
       <c r="A117" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:2">
       <c r="A118" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:2">
       <c r="A119" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:2">
       <c r="A120" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:2">
       <c r="A121" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:2">
       <c r="A122" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:2">
       <c r="A123" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:2">
       <c r="A124" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:2">
       <c r="A125" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:2">
       <c r="A126" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:2">
       <c r="A127" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:2">
       <c r="A128" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:2">
       <c r="A129" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:2">
       <c r="A130" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:2">
       <c r="A131" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:2">
       <c r="A132" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:2">
       <c r="A133" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:2">
       <c r="A134" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:2">
       <c r="A135" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:2">
       <c r="A136" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:2">
@@ -3544,290 +3560,290 @@
     </row>
     <row r="139" ht="21" spans="1:2">
       <c r="A139" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:2">
       <c r="A140" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:2">
       <c r="A141" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:2">
       <c r="A142" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:2">
       <c r="A143" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:2">
       <c r="A144" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:2">
       <c r="A145" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:2">
       <c r="A146" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:2">
       <c r="A147" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:2">
       <c r="A148" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:2">
       <c r="A149" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:2">
       <c r="A150" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:2">
       <c r="A151" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:2">
       <c r="A152" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:2">
       <c r="A153" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:2">
       <c r="A154" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:2">
       <c r="A155" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:2">
       <c r="A156" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:2">
       <c r="A157" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:2">
       <c r="A158" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:2">
       <c r="A159" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:2">
       <c r="A160" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:2">
       <c r="A161" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:2">
       <c r="A162" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:2">
       <c r="A163" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:2">
       <c r="A164" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:2">
       <c r="A165" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:2">
       <c r="A166" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:2">
       <c r="A167" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:2">
       <c r="A168" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:2">
       <c r="A169" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:2">
       <c r="A170" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:2">
       <c r="A171" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:2">
       <c r="A172" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:2">
       <c r="A173" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:2">
       <c r="A174" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:2">
@@ -3835,282 +3851,282 @@
     </row>
     <row r="177" ht="21" spans="1:2">
       <c r="A177" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:2">
       <c r="A178" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:2">
       <c r="A179" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:2">
       <c r="A180" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:2">
       <c r="A181" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:2">
       <c r="A182" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:2">
       <c r="A183" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:2">
       <c r="A184" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:2">
       <c r="A185" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:2">
       <c r="A186" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:2">
       <c r="A187" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:2">
       <c r="A188" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:2">
       <c r="A189" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:2">
       <c r="A190" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:2">
       <c r="A191" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:2">
       <c r="A192" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:2">
       <c r="A193" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:2">
       <c r="A194" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:2">
       <c r="A195" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:2">
       <c r="A196" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:2">
       <c r="A197" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:2">
       <c r="A198" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:2">
       <c r="A199" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:2">
       <c r="A200" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:2">
       <c r="A201" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:2">
       <c r="A202" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:2">
       <c r="A203" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:2">
       <c r="A204" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:2">
       <c r="A205" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:2">
       <c r="A206" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:2">
       <c r="A207" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:2">
       <c r="A208" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:2">
       <c r="A209" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:2">
       <c r="A210" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:2">
       <c r="A211" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:2">
@@ -4123,178 +4139,178 @@
     </row>
     <row r="214" ht="21" spans="1:2">
       <c r="A214" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:2">
       <c r="A215" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:2">
       <c r="A216" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:2">
       <c r="A217" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:2">
       <c r="A218" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:2">
       <c r="A219" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:2">
       <c r="A220" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:2">
       <c r="A221" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:2">
       <c r="A222" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:2">
       <c r="A223" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:2">
       <c r="A224" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:2">
       <c r="A225" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:2">
       <c r="A226" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:2">
       <c r="A227" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:2">
       <c r="A228" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:2">
       <c r="A229" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:2">
       <c r="A230" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:2">
       <c r="A231" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:2">
       <c r="A232" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:2">
       <c r="A233" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:2">
       <c r="A234" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:2">
       <c r="A235" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:2">
@@ -4305,282 +4321,282 @@
     </row>
     <row r="238" ht="21" spans="1:2">
       <c r="A238" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:2">
       <c r="A239" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:2">
       <c r="A240" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:2">
       <c r="A241" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:2">
       <c r="A242" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:2">
       <c r="A243" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:2">
       <c r="A244" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:2">
       <c r="A245" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:2">
       <c r="A246" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:2">
       <c r="A247" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:2">
       <c r="A248" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:2">
       <c r="A249" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:2">
       <c r="A250" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:2">
       <c r="A251" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:2">
       <c r="A252" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:2">
       <c r="A253" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:2">
       <c r="A254" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:2">
       <c r="A255" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:2">
       <c r="A256" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:2">
       <c r="A257" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:2">
       <c r="A258" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:2">
       <c r="A259" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:2">
       <c r="A260" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:2">
       <c r="A261" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:2">
       <c r="A262" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:2">
       <c r="A263" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:2">
       <c r="A264" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:2">
       <c r="A265" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:2">
       <c r="A266" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:2">
       <c r="A267" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:2">
       <c r="A268" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:2">
       <c r="A269" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:2">
       <c r="A270" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:2">
       <c r="A271" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:2">
       <c r="A272" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:2">
@@ -4591,154 +4607,154 @@
     </row>
     <row r="275" ht="21" spans="1:2">
       <c r="A275" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:2">
       <c r="A276" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:2">
       <c r="A277" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:2">
       <c r="A278" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:2">
       <c r="A279" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:2">
       <c r="A280" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:2">
       <c r="A281" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:2">
       <c r="A282" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:2">
       <c r="A283" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:2">
       <c r="A284" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:2">
       <c r="A285" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:2">
       <c r="A286" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:2">
       <c r="A287" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:2">
       <c r="A288" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:2">
       <c r="A289" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:2">
       <c r="A290" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:2">
       <c r="A291" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:2">
       <c r="A292" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:2">
       <c r="A293" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:2">
@@ -4749,306 +4765,306 @@
     </row>
     <row r="296" ht="21" spans="1:2">
       <c r="A296" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:2">
       <c r="A297" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:2">
       <c r="A298" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:2">
       <c r="A299" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:2">
       <c r="A300" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:2">
       <c r="A301" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:2">
       <c r="A302" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:2">
       <c r="A303" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:2">
       <c r="A304" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:2">
       <c r="A305" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:2">
       <c r="A306" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:2">
       <c r="A307" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:2">
       <c r="A308" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:2">
       <c r="A309" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:2">
       <c r="A310" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:2">
       <c r="A311" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:2">
       <c r="A312" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:2">
       <c r="A313" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:2">
       <c r="A314" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:2">
       <c r="A315" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:2">
       <c r="A316" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:2">
       <c r="A317" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:2">
       <c r="A318" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:2">
       <c r="A319" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:2">
       <c r="A320" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:2">
       <c r="A321" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:2">
       <c r="A322" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:2">
       <c r="A323" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:2">
       <c r="A324" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:2">
       <c r="A325" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:2">
       <c r="A326" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:2">
       <c r="A327" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:2">
       <c r="A328" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:2">
       <c r="A329" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:2">
       <c r="A330" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:2">
       <c r="A331" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:2">
       <c r="A332" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:2">
       <c r="A333" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:2">
@@ -5062,7 +5078,7 @@
         <v>11</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:2">
@@ -5070,7 +5086,7 @@
         <v>11</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:2">
@@ -5078,7 +5094,7 @@
         <v>11</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:2">
@@ -5086,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:2">
@@ -5094,7 +5110,7 @@
         <v>11</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:2">
@@ -5102,7 +5118,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:2">
@@ -5110,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:2">
@@ -5118,7 +5134,7 @@
         <v>11</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:2">
@@ -5126,7 +5142,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:2">
@@ -5134,7 +5150,7 @@
         <v>11</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:2">
@@ -5142,7 +5158,7 @@
         <v>11</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:2">
@@ -5150,7 +5166,7 @@
         <v>11</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:2">
@@ -5158,7 +5174,7 @@
         <v>11</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:2">
@@ -5166,7 +5182,7 @@
         <v>11</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:2">
@@ -5174,7 +5190,7 @@
         <v>11</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:2">
@@ -5182,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:2">
@@ -5190,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:2">
@@ -5198,7 +5214,7 @@
         <v>11</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:2">
@@ -5209,354 +5225,354 @@
     </row>
     <row r="356" ht="21" spans="1:2">
       <c r="A356" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:2">
       <c r="A357" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:2">
       <c r="A358" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:2">
       <c r="A359" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:2">
       <c r="A360" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:2">
       <c r="A361" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:2">
       <c r="A362" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:2">
       <c r="A363" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:2">
       <c r="A364" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:2">
       <c r="A365" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:2">
       <c r="A366" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:2">
       <c r="A367" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:2">
       <c r="A368" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:2">
       <c r="A369" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:2">
       <c r="A370" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:2">
       <c r="A371" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:2">
       <c r="A372" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:2">
       <c r="A373" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:2">
       <c r="A374" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:2">
       <c r="A375" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:2">
       <c r="A376" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:2">
       <c r="A377" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:2">
       <c r="A378" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:2">
       <c r="A379" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:2">
       <c r="A380" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:2">
       <c r="A381" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:2">
       <c r="A382" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:2">
       <c r="A383" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:2">
       <c r="A384" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:2">
       <c r="A385" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:2">
       <c r="A386" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:2">
       <c r="A387" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:2">
       <c r="A388" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:2">
       <c r="A389" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:2">
       <c r="A390" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:2">
       <c r="A391" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:2">
       <c r="A392" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:2">
       <c r="A393" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:2">
       <c r="A394" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:2">
       <c r="A395" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:2">
       <c r="A396" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:2">
       <c r="A397" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:2">
       <c r="A398" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:2">
       <c r="A399" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:2">
@@ -5567,50 +5583,50 @@
     </row>
     <row r="402" ht="21" spans="1:2">
       <c r="A402" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:2">
       <c r="A403" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:2">
       <c r="A404" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:2">
       <c r="A405" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:2">
       <c r="A406" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:2">
       <c r="A407" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:2">
@@ -5621,482 +5637,482 @@
     </row>
     <row r="410" ht="21" spans="1:2">
       <c r="A410" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:2">
       <c r="A411" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:2">
       <c r="A412" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:2">
       <c r="A413" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:2">
       <c r="A414" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:2">
       <c r="A415" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:2">
       <c r="A416" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:2">
       <c r="A417" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:2">
       <c r="A418" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:2">
       <c r="A419" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:2">
       <c r="A420" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:2">
       <c r="A421" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:2">
       <c r="A422" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:2">
       <c r="A423" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:2">
       <c r="A424" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:2">
       <c r="A425" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:2">
       <c r="A426" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:2">
       <c r="A427" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:2">
       <c r="A428" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:2">
       <c r="A429" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:2">
       <c r="A430" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:2">
       <c r="A431" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:2">
       <c r="A432" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:2">
       <c r="A433" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:2">
       <c r="A434" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:2">
       <c r="A435" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:2">
       <c r="A436" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:2">
       <c r="A437" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:2">
       <c r="A438" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:2">
       <c r="A439" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:2">
       <c r="A440" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:2">
       <c r="A441" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:2">
       <c r="A442" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:2">
       <c r="A443" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:2">
       <c r="A444" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:2">
       <c r="A445" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:2">
       <c r="A446" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:2">
       <c r="A447" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:2">
       <c r="A448" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:2">
       <c r="A449" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:2">
       <c r="A450" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:2">
       <c r="A451" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:2">
       <c r="A452" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:2">
       <c r="A453" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:2">
       <c r="A454" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:2">
       <c r="A455" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:2">
       <c r="A456" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:2">
       <c r="A457" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:2">
       <c r="A458" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:2">
       <c r="A459" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:2">
       <c r="A460" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:2">
       <c r="A461" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:2">
       <c r="A462" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:2">
       <c r="A463" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:2">
       <c r="A464" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:2">
       <c r="A465" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:2">
       <c r="A466" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:2">
       <c r="A467" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:2">
       <c r="A468" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:2">
       <c r="A469" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:2">
@@ -6108,82 +6124,82 @@
     </row>
     <row r="472" ht="21" spans="1:2">
       <c r="A472" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:2">
       <c r="A473" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:2">
       <c r="A474" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:2">
       <c r="A475" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:2">
       <c r="A476" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:2">
       <c r="A477" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:2">
       <c r="A478" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:2">
       <c r="A479" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:2">
       <c r="A480" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:2">
       <c r="A481" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6643,10 +6659,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -6658,22 +6690,78 @@
   <sheetData>
     <row r="1" ht="21" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>468</v>
+      <c r="A4" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.7" customWidth="1"/>
+    <col min="2" max="2" width="21.9" customWidth="1"/>
+    <col min="3" max="3" width="28.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.8" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" ht="21" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>